--- a/guru99.v4 test cases&scenario.xlsx
+++ b/guru99.v4 test cases&scenario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="364">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -698,6 +698,9 @@
     <t>Error message displays: "Customer name must not be blank"</t>
   </si>
   <si>
+    <t>Đào Trung Thành</t>
+  </si>
+  <si>
     <t>1. Enter numeric value in Customer Name field.
 2. Move to the next field.</t>
   </si>
@@ -832,6 +835,9 @@
   </si>
   <si>
     <t>Error message displays: "PIN Code must have 6 Digits"</t>
+  </si>
+  <si>
+    <t>Trương Xuân Kiên</t>
   </si>
   <si>
     <t>1. Enter special characters in PIN field.
@@ -1028,6 +1034,9 @@
   </si>
   <si>
     <t>An error message "Account No must not be blank" is displayed.</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Ly</t>
   </si>
   <si>
     <t>1. Enter special characters
@@ -2982,47 +2991,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G35"/>
+    <mergeCell ref="G36:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G60:G71"/>
+    <mergeCell ref="G72:G88"/>
+    <mergeCell ref="G89:G90"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="G8:G35"/>
-    <mergeCell ref="C8:C35"/>
     <mergeCell ref="A8:A35"/>
     <mergeCell ref="D8:D35"/>
-    <mergeCell ref="B8:B35"/>
-    <mergeCell ref="D36:D43"/>
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="G36:G43"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="G44:G51"/>
     <mergeCell ref="C44:C51"/>
     <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B8:B35"/>
+    <mergeCell ref="C8:C35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D36:D43"/>
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="C60:C71"/>
     <mergeCell ref="B60:B71"/>
     <mergeCell ref="A60:A71"/>
-    <mergeCell ref="G60:G71"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="G72:G88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="D60:D71"/>
     <mergeCell ref="D72:D88"/>
     <mergeCell ref="C72:C88"/>
     <mergeCell ref="B72:B88"/>
     <mergeCell ref="A72:A88"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="D60:D71"/>
+    <mergeCell ref="C60:C71"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3245,14 +3254,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.75"/>
-    <col customWidth="1" min="2" max="2" width="42.25"/>
+    <col customWidth="1" min="1" max="1" width="10.5"/>
+    <col customWidth="1" min="2" max="2" width="39.5"/>
     <col customWidth="1" min="3" max="3" width="41.25"/>
-    <col customWidth="1" min="4" max="4" width="46.0"/>
-    <col customWidth="1" min="5" max="5" width="27.38"/>
-    <col customWidth="1" min="6" max="7" width="84.75"/>
-    <col customWidth="1" min="8" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="9" width="18.0"/>
+    <col customWidth="1" min="4" max="4" width="43.75"/>
+    <col customWidth="1" min="5" max="5" width="25.88"/>
+    <col customWidth="1" min="6" max="7" width="79.25"/>
+    <col customWidth="1" min="8" max="8" width="9.63"/>
+    <col customWidth="1" min="9" max="9" width="17.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3310,7 +3319,7 @@
         <v>203</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -3324,22 +3333,22 @@
         <v>218</v>
       </c>
       <c r="D3" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4">
@@ -3353,22 +3362,22 @@
         <v>218</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -3382,22 +3391,22 @@
         <v>218</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -3411,22 +3420,22 @@
         <v>218</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -3440,22 +3449,22 @@
         <v>218</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -3469,22 +3478,22 @@
         <v>218</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -3498,22 +3507,22 @@
         <v>218</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">
@@ -3527,22 +3536,22 @@
         <v>218</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
@@ -3556,22 +3565,22 @@
         <v>218</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
@@ -3585,22 +3594,22 @@
         <v>218</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13">
@@ -3614,22 +3623,22 @@
         <v>218</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
@@ -3643,22 +3652,22 @@
         <v>218</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
@@ -3672,22 +3681,22 @@
         <v>218</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16">
@@ -3701,22 +3710,22 @@
         <v>218</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
@@ -3730,22 +3739,22 @@
         <v>218</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18">
@@ -3759,22 +3768,22 @@
         <v>218</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
@@ -3788,22 +3797,22 @@
         <v>218</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E19" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>263</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -3817,22 +3826,22 @@
         <v>218</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21">
@@ -3846,22 +3855,22 @@
         <v>218</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
@@ -3875,22 +3884,22 @@
         <v>218</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23">
@@ -3904,22 +3913,22 @@
         <v>218</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
@@ -3933,22 +3942,22 @@
         <v>218</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
@@ -3962,22 +3971,22 @@
         <v>218</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26">
@@ -3991,22 +4000,22 @@
         <v>218</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H26" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
@@ -4020,22 +4029,22 @@
         <v>218</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H27" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
@@ -4049,22 +4058,22 @@
         <v>218</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -4078,22 +4087,22 @@
         <v>218</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4134,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -4166,25 +4175,25 @@
         <v>84</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -4195,25 +4204,25 @@
         <v>86</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -4224,25 +4233,25 @@
         <v>88</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -4253,25 +4262,25 @@
         <v>90</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -4282,25 +4291,25 @@
         <v>92</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
@@ -4311,25 +4320,25 @@
         <v>94</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -4340,25 +4349,25 @@
         <v>96</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -4369,25 +4378,25 @@
         <v>98</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +4437,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -4460,23 +4469,23 @@
         <v>103</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
@@ -4487,23 +4496,23 @@
         <v>105</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
@@ -4514,23 +4523,23 @@
         <v>107</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
@@ -4541,23 +4550,23 @@
         <v>109</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -4568,23 +4577,23 @@
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
@@ -4595,23 +4604,23 @@
         <v>113</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
@@ -4622,23 +4631,23 @@
         <v>115</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -4649,25 +4658,25 @@
         <v>98</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4706,7 +4715,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -4738,22 +4747,22 @@
         <v>103</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
@@ -4764,22 +4773,22 @@
         <v>105</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
@@ -4790,22 +4799,22 @@
         <v>107</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D4" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5">
@@ -4816,22 +4825,22 @@
         <v>109</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -4842,22 +4851,22 @@
         <v>113</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
@@ -4868,22 +4877,22 @@
         <v>111</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -4894,22 +4903,22 @@
         <v>115</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
@@ -4920,25 +4929,25 @@
         <v>98</v>
       </c>
       <c r="C9" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>324</v>
-      </c>
       <c r="F9" s="33" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -5011,22 +5020,22 @@
         <v>132</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
@@ -5037,22 +5046,22 @@
         <v>134</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
@@ -5063,22 +5072,22 @@
         <v>136</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
@@ -5089,22 +5098,22 @@
         <v>138</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
@@ -5115,22 +5124,22 @@
         <v>134</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
@@ -5141,22 +5150,22 @@
         <v>136</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
@@ -5167,22 +5176,22 @@
         <v>142</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
@@ -5193,22 +5202,22 @@
         <v>136</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
@@ -5219,22 +5228,22 @@
         <v>134</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
@@ -5245,22 +5254,22 @@
         <v>146</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12">
@@ -5271,25 +5280,25 @@
         <v>148</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
@@ -5300,25 +5309,25 @@
         <v>150</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>203</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5368,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -5391,13 +5400,13 @@
         <v>155</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>203</v>
@@ -5414,13 +5423,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>203</v>
@@ -5437,13 +5446,13 @@
         <v>134</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>203</v>
@@ -5460,13 +5469,13 @@
         <v>134</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>203</v>
@@ -5483,13 +5492,13 @@
         <v>160</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>203</v>
@@ -5506,13 +5515,13 @@
         <v>136</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>203</v>
@@ -5529,13 +5538,13 @@
         <v>134</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>203</v>
@@ -5552,13 +5561,13 @@
         <v>164</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>203</v>
@@ -5575,13 +5584,13 @@
         <v>136</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>203</v>
@@ -5598,13 +5607,13 @@
         <v>167</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>203</v>
@@ -5621,13 +5630,13 @@
         <v>169</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>203</v>
@@ -5644,13 +5653,13 @@
         <v>171</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>203</v>
@@ -5667,13 +5676,13 @@
         <v>173</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>203</v>
@@ -5690,13 +5699,13 @@
         <v>175</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>203</v>
@@ -5713,13 +5722,13 @@
         <v>177</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>203</v>
@@ -5736,19 +5745,19 @@
         <v>179</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I17" s="31" t="s">
         <v>204</v>
@@ -5762,19 +5771,19 @@
         <v>181</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>204</v>
@@ -5818,7 +5827,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>191</v>
@@ -5850,19 +5859,19 @@
         <v>186</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>204</v>
@@ -5876,19 +5885,19 @@
         <v>188</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>356</v>
-      </c>
       <c r="F3" s="31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>204</v>
